--- a/Main Board/BOM-MainBoardRev2b.xlsx
+++ b/Main Board/BOM-MainBoardRev2b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/Main Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BA3253E-61DF-40D3-B65F-13C929B279D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6534D5F4-435E-4BDA-AFEA-812E585F927B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31320" yWindow="1695" windowWidth="21600" windowHeight="12645" xr2:uid="{D0F92D7D-FA28-431C-AE5F-3583BE58530B}"/>
+    <workbookView xWindow="31665" yWindow="2040" windowWidth="21600" windowHeight="12645" xr2:uid="{D0F92D7D-FA28-431C-AE5F-3583BE58530B}"/>
   </bookViews>
   <sheets>
     <sheet name="MainBoardRev2" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="657">
   <si>
     <t>Quantity</t>
   </si>
@@ -1686,6 +1686,9 @@
     <t>OPA197IDBVT</t>
   </si>
   <si>
+    <t>Main Board Rev 2</t>
+  </si>
+  <si>
     <t>Surface Mount</t>
   </si>
   <si>
@@ -2884,7 +2887,19 @@
     </r>
   </si>
   <si>
-    <t>Main Board Rev 2b</t>
+    <t>R3, R7</t>
+  </si>
+  <si>
+    <t>RES 33.2 OHM 1% 1/4W 1206</t>
+  </si>
+  <si>
+    <t>33.2K</t>
+  </si>
+  <si>
+    <t>RMCF1206FT3322FCT-ND</t>
+  </si>
+  <si>
+    <t>RMCF1206FT3322F</t>
   </si>
 </sst>
 </file>
@@ -3302,10 +3317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141DE95B-5139-4F8A-9CCE-A913B8066809}">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3314,7 +3329,7 @@
     <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="37.140625" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
@@ -3327,7 +3342,7 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>651</v>
+        <v>552</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -3353,7 +3368,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3361,7 +3376,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -3379,13 +3394,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>4</v>
@@ -3405,10 +3420,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>650</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>649</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>40</v>
@@ -3433,15 +3448,15 @@
         <v>15</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>630</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>629</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>44</v>
@@ -3466,15 +3481,15 @@
         <v>15</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>632</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>631</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>87</v>
@@ -3499,12 +3514,12 @@
         <v>15</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>62</v>
@@ -3537,7 +3552,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>67</v>
@@ -3570,7 +3585,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>78</v>
@@ -3598,12 +3613,12 @@
         <v>15</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>89</v>
@@ -3631,12 +3646,12 @@
         <v>15</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>92</v>
@@ -3664,12 +3679,12 @@
         <v>15</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>96</v>
@@ -3697,12 +3712,12 @@
         <v>15</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>102</v>
@@ -3735,7 +3750,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>107</v>
@@ -3763,12 +3778,12 @@
         <v>15</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>111</v>
@@ -3796,18 +3811,18 @@
         <v>15</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>115</v>
@@ -3820,7 +3835,7 @@
         <v>117</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>116</v>
@@ -3834,10 +3849,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>628</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>627</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>125</v>
@@ -3860,18 +3875,18 @@
         <v>15</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6" t="s">
@@ -3891,12 +3906,12 @@
         <v>15</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>134</v>
@@ -3922,12 +3937,12 @@
         <v>15</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>139</v>
@@ -3946,7 +3961,7 @@
         <v>127</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>142</v>
@@ -3960,7 +3975,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>260</v>
@@ -3991,7 +4006,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>265</v>
@@ -4022,7 +4037,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>271</v>
@@ -4053,7 +4068,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>284</v>
@@ -4079,12 +4094,12 @@
         <v>15</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>289</v>
@@ -4115,7 +4130,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>294</v>
@@ -4146,7 +4161,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>299</v>
@@ -4174,25 +4189,25 @@
         <v>15</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>634</v>
-      </c>
       <c r="C29" s="6" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="6" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>321</v>
@@ -4201,18 +4216,18 @@
         <v>304</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>306</v>
@@ -4245,86 +4260,84 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>314</v>
+        <v>568</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>652</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>315</v>
+        <v>653</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>219</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="F31" s="6"/>
       <c r="G31" s="6" t="s">
-        <v>303</v>
+        <v>377</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>304</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>316</v>
+        <v>656</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>317</v>
+        <v>655</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>641</v>
+      <c r="B32" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>642</v>
+        <v>315</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="6" t="s">
-        <v>643</v>
+        <v>218</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>644</v>
+        <v>219</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>645</v>
+        <v>316</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>646</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>318</v>
+        <v>566</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>642</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>578</v>
+        <v>643</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="6" t="s">
-        <v>319</v>
+        <v>644</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>320</v>
+        <v>645</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>321</v>
@@ -4333,31 +4346,31 @@
         <v>322</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>323</v>
+        <v>646</v>
       </c>
       <c r="J33" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>324</v>
+        <v>647</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>579</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="6" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>321</v>
@@ -4366,31 +4379,31 @@
         <v>322</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>648</v>
+        <v>568</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>647</v>
+        <v>325</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="6" t="s">
-        <v>218</v>
+        <v>326</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>219</v>
+        <v>327</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>321</v>
@@ -4399,31 +4412,31 @@
         <v>322</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>608</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>565</v>
+        <v>649</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>331</v>
+        <v>648</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="6" t="s">
-        <v>332</v>
+        <v>218</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>333</v>
+        <v>219</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>321</v>
@@ -4432,31 +4445,31 @@
         <v>322</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>335</v>
+        <v>609</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>337</v>
+        <v>581</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="6" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>321</v>
@@ -4465,31 +4478,31 @@
         <v>322</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="J37" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>607</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="6" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>321</v>
@@ -4498,31 +4511,31 @@
         <v>322</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="J38" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>341</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>321</v>
@@ -4531,31 +4544,31 @@
         <v>322</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="J39" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>350</v>
+        <v>634</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>563</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="6" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>321</v>
@@ -4564,13 +4577,13 @@
         <v>322</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>355</v>
+        <v>606</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -4578,17 +4591,17 @@
         <v>566</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="6" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>321</v>
@@ -4597,31 +4610,31 @@
         <v>322</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>356</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="6" t="s">
-        <v>238</v>
+        <v>358</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>239</v>
+        <v>359</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>321</v>
@@ -4630,31 +4643,31 @@
         <v>322</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>363</v>
+        <v>570</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>562</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="6" t="s">
-        <v>365</v>
+        <v>238</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>366</v>
+        <v>239</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>321</v>
@@ -4663,31 +4676,31 @@
         <v>322</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J43" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="6" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>321</v>
@@ -4696,130 +4709,130 @@
         <v>322</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="6" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="J45" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>379</v>
+        <v>602</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="6" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="J46" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="6" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="J47" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>600</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="6" t="s">
-        <v>218</v>
+        <v>388</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>219</v>
+        <v>389</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>377</v>
@@ -4828,31 +4841,31 @@
         <v>304</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J48" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>394</v>
+        <v>601</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="6" t="s">
-        <v>397</v>
+        <v>218</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>398</v>
+        <v>219</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>377</v>
@@ -4861,64 +4874,64 @@
         <v>304</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="J49" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>599</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="6" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="J50" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="6" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>321</v>
@@ -4927,130 +4940,130 @@
         <v>322</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="J51" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="6" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="J52" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>415</v>
+        <v>598</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="6" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="J53" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>596</v>
+        <v>415</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="6" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="J54" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>426</v>
+        <v>597</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="6" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>377</v>
@@ -5059,163 +5072,163 @@
         <v>304</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="J55" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="6" t="s">
-        <v>256</v>
+        <v>429</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>257</v>
+        <v>430</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J56" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>595</v>
+        <v>432</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>582</v>
+        <v>434</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="6" t="s">
-        <v>437</v>
+        <v>256</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>438</v>
+        <v>257</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J57" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>440</v>
+        <v>596</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>442</v>
+        <v>583</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="6" t="s">
-        <v>352</v>
+        <v>437</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J58" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="6" t="s">
-        <v>447</v>
+        <v>352</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>448</v>
+        <v>353</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="J59" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>594</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="6" t="s">
-        <v>226</v>
+        <v>447</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>227</v>
+        <v>448</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>321</v>
@@ -5224,284 +5237,286 @@
         <v>322</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="J60" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="6" t="s">
-        <v>455</v>
+        <v>226</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>455</v>
+        <v>227</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="J61" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>457</v>
+        <v>594</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>458</v>
+        <v>566</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>453</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="6" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>303</v>
+        <v>377</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>304</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="J62" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>464</v>
+        <v>572</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>458</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>583</v>
+        <v>459</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="6" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>303</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="J63" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>470</v>
+        <v>584</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="6" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>303</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>104</v>
+        <v>322</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="J64" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>592</v>
+        <v>468</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="F65" s="5"/>
+        <v>471</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>472</v>
+      </c>
       <c r="G65" s="6" t="s">
-        <v>499</v>
+        <v>303</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>500</v>
+        <v>104</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="J65" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>502</v>
+        <v>593</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="6" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="6" t="s">
         <v>499</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>132</v>
+        <v>500</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="J66" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="6" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="6" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>500</v>
+        <v>132</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="J67" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="6" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="6" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>132</v>
+        <v>500</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="J68" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>591</v>
+        <v>512</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="6" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="6" t="s">
@@ -5511,213 +5526,231 @@
         <v>132</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="J69" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="6" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="6" t="s">
-        <v>127</v>
+        <v>499</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>524</v>
+        <v>132</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="J70" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>526</v>
+        <v>591</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="6" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="6" t="s">
-        <v>530</v>
+        <v>127</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="J71" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="6" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="6" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>282</v>
+        <v>500</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="J72" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>589</v>
+        <v>532</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="6" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="6" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>500</v>
+        <v>282</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="J73" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="6" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="6" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>547</v>
+        <v>500</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="J74" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>588</v>
+        <v>557</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="6" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="F76" s="5"/>
+      <c r="G76" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="H76" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="I75" s="6" t="s">
+      <c r="I76" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="J75" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
+      <c r="J76" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
@@ -5726,340 +5759,322 @@
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="3" t="s">
-        <v>553</v>
-      </c>
+      <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
-        <v>3</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="5"/>
-      <c r="G78" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J78" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K78" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J79" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J80" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="6" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J81" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="J82" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>53</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J83" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="6" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="J84" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J85" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
-        <v>7</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>99</v>
+        <v>1</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>584</v>
+        <v>82</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>53</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="J86" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K86" s="5" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K86" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <v>1</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>120</v>
+        <v>7</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D87" s="5"/>
+        <v>585</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="E87" s="6" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="6" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="J87" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K87" s="6" t="s">
-        <v>124</v>
+      <c r="K87" s="5" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -6067,30 +6082,30 @@
         <v>1</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="6" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="F88" s="5"/>
       <c r="G88" s="6" t="s">
-        <v>557</v>
+        <v>123</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="J88" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -6098,61 +6113,61 @@
         <v>1</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="6" t="s">
-        <v>153</v>
+        <v>558</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J89" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J90" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -6160,30 +6175,30 @@
         <v>2</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F91" s="5"/>
       <c r="G91" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J91" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -6191,154 +6206,154 @@
         <v>2</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J92" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J93" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>625</v>
+        <v>174</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>178</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="J94" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>559</v>
+        <v>626</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>178</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J95" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>188</v>
+        <v>560</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F96" s="5"/>
       <c r="G96" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="J96" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -6346,92 +6361,92 @@
         <v>1</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>558</v>
+        <v>188</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F97" s="5"/>
       <c r="G97" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J97" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>198</v>
+        <v>559</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F98" s="5"/>
       <c r="G98" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="J98" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="6" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="J99" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -6439,30 +6454,30 @@
         <v>1</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F100" s="5"/>
       <c r="G100" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J100" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -6470,32 +6485,30 @@
         <v>1</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>219</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="F101" s="5"/>
       <c r="G101" s="6" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="J101" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -6503,17 +6516,17 @@
         <v>1</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="6" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G102" s="6" t="s">
         <v>220</v>
@@ -6522,13 +6535,13 @@
         <v>221</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J102" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -6536,17 +6549,17 @@
         <v>1</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G103" s="6" t="s">
         <v>220</v>
@@ -6555,13 +6568,13 @@
         <v>221</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J103" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -6569,17 +6582,17 @@
         <v>1</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G104" s="6" t="s">
         <v>220</v>
@@ -6588,64 +6601,64 @@
         <v>221</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J104" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="6" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J105" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="6" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G106" s="6" t="s">
         <v>245</v>
@@ -6654,13 +6667,13 @@
         <v>246</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="J106" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -6668,32 +6681,32 @@
         <v>1</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="6" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="J107" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -6701,92 +6714,94 @@
         <v>1</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>151</v>
+        <v>255</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F108" s="5"/>
+        <v>256</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>257</v>
+      </c>
       <c r="G108" s="6" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="J108" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>155</v>
+        <v>259</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>278</v>
+        <v>150</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>279</v>
+        <v>151</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="6" t="s">
-        <v>280</v>
+        <v>152</v>
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="6" t="s">
-        <v>281</v>
+        <v>153</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>282</v>
+        <v>154</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>283</v>
+        <v>152</v>
       </c>
       <c r="J109" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>586</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>474</v>
+        <v>278</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>475</v>
+        <v>279</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="6" t="s">
-        <v>476</v>
+        <v>280</v>
       </c>
       <c r="F110" s="5"/>
       <c r="G110" s="6" t="s">
-        <v>477</v>
+        <v>281</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>478</v>
+        <v>282</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>477</v>
+        <v>283</v>
       </c>
       <c r="J110" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>479</v>
+        <v>587</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -6794,30 +6809,30 @@
         <v>1</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="6" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F111" s="5"/>
       <c r="G111" s="6" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J111" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -6825,75 +6840,93 @@
         <v>1</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="6" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F112" s="5"/>
       <c r="G112" s="6" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="J112" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
-        <v>26</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>491</v>
+        <v>1</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>486</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K113" s="6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A114" s="5">
+        <v>26</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D114" s="5"/>
+      <c r="E114" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="F114" s="5"/>
+      <c r="G114" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="H113" s="6" t="s">
+      <c r="H114" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="I113" s="6" t="s">
+      <c r="I114" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="J113" s="6" t="s">
+      <c r="J114" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="K113" s="6" t="s">
+      <c r="K114" s="6" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
@@ -6908,6 +6941,19 @@
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
     </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="115" orientation="landscape" r:id="rId1"/>
